--- a/Project Schedule/0420 Gantt Chart.xlsx
+++ b/Project Schedule/0420 Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Programming\Project\1day 3pill\Document\Project Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1C934-FF33-4CD5-9957-C0B0161A16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C665C0-6475-43C2-8878-69556B7BBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="5685" windowWidth="35895" windowHeight="17820" xr2:uid="{D788C42C-218D-4CD5-97A9-0CBACD0D52ED}"/>
+    <workbookView xWindow="1290" yWindow="2895" windowWidth="35895" windowHeight="17820" xr2:uid="{D788C42C-218D-4CD5-97A9-0CBACD0D52ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -2490,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0E94C-1CF7-4FCD-9084-F828771AA607}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
